--- a/Region_Test_Results.xlsx
+++ b/Region_Test_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Don-t-Let-the-Bark-Beetle-Bite-You/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731BED9-934E-8641-8330-8CD1DB889BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428C648B-B297-D246-8874-A6CDE6EAB3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{332E1231-F788-3A47-B2EA-3467E5812766}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Cabar 2</t>
   </si>
   <si>
-    <t>Cabar 3</t>
-  </si>
-  <si>
     <t>cabar</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Osojnica 2</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +216,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADD6BAD-3012-0145-ACC9-750D0C9C43AB}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,13 +591,13 @@
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +613,11 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -612,12 +636,9 @@
       <c r="F3">
         <v>18.049800000000001</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -636,12 +657,9 @@
       <c r="F4">
         <v>8.0730000000000004</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -660,12 +678,9 @@
       <c r="F5">
         <v>7.0778999999999996</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -684,8 +699,9 @@
       <c r="F6">
         <v>6.3369999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -704,8 +720,9 @@
       <c r="F7">
         <v>5.2317</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -724,8 +741,9 @@
       <c r="F8">
         <v>15.887</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -744,8 +762,9 @@
       <c r="F9">
         <v>13.555</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -764,8 +783,9 @@
       <c r="F10">
         <v>13.542</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -784,8 +804,9 @@
       <c r="F11">
         <v>10.618</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -804,8 +825,9 @@
       <c r="F12">
         <v>27.45</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -824,8 +846,9 @@
       <c r="F13">
         <v>41.250999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -844,8 +867,9 @@
       <c r="F14">
         <v>11.377000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -864,8 +888,9 @@
       <c r="F15">
         <v>17.940000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -884,8 +909,9 @@
       <c r="F16">
         <v>3.8559999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -904,8 +930,9 @@
       <c r="F17">
         <v>14.341200000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -924,8 +951,9 @@
       <c r="F18">
         <v>18.714300000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -944,8 +972,9 @@
       <c r="F19">
         <v>1.7911999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -964,8 +993,9 @@
       <c r="F20">
         <v>6.6050000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -984,8 +1014,9 @@
       <c r="F21">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1004,13 +1035,14 @@
       <c r="F22">
         <v>0.8448</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2016</v>
@@ -1024,13 +1056,14 @@
       <c r="F23">
         <v>22.158999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -1044,28 +1077,67 @@
       <c r="F24">
         <v>30.834</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="E25">
+        <v>2018</v>
+      </c>
+      <c r="F25">
+        <v>49.207999999999998</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26">
+        <v>7.351</v>
+      </c>
+      <c r="E26">
+        <v>2016</v>
+      </c>
+      <c r="F26">
+        <v>5.4649999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
